--- a/Datasett/avfallspunkter.gjesdal.kommune.xlsx
+++ b/Datasett/avfallspunkter.gjesdal.kommune.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\oblig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3C7361-F890-454B-857C-7F91484027B9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avfallspunkter.gjesdal.kommune" sheetId="1" r:id="rId1"/>
@@ -48,12 +49,6 @@
     <t>poststed</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lng</t>
-  </si>
-  <si>
     <t>returpunkt</t>
   </si>
   <si>
@@ -289,12 +284,18 @@
   </si>
   <si>
     <t>6.191760</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1128,14 +1129,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,559 +1167,559 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
       </c>
       <c r="B2">
         <v>14979</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
       </c>
       <c r="H2">
         <v>4335</v>
       </c>
       <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>14980</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>4335</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>15003</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>4335</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>15004</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>4335</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>15005</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>4335</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>15006</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>4335</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>15007</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8">
         <v>4335</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>15008</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>4335</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>15009</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H10">
         <v>4335</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>15019</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
         <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
       </c>
       <c r="H11">
         <v>4330</v>
       </c>
       <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
         <v>52</v>
       </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>15020</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
       </c>
       <c r="H12">
         <v>4330</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>15021</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
         <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" t="s">
-        <v>62</v>
       </c>
       <c r="H13">
         <v>4330</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>15022</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
         <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
       </c>
       <c r="H14">
         <v>4335</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>15023</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H15">
         <v>4335</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>15024</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H16">
         <v>4335</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>15025</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H17">
         <v>4335</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>15026</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H18">
         <v>4335</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>15027</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H19">
         <v>4335</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
